--- a/classification/droptc/message/bert-base-uncased/unfreeze/87212562/prediction.xlsx
+++ b/classification/droptc/message/bert-base-uncased/unfreeze/87212562/prediction.xlsx
@@ -721,12 +721,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 1, 0, 0]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['Normal', 'HardwareFault']</t>
+          <t>['Normal', 'HardwareFault', 'RegulationViolation']</t>
         </is>
       </c>
     </row>
@@ -856,12 +856,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 1, 0, 0]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'RegulationViolation']</t>
         </is>
       </c>
     </row>
@@ -1180,12 +1180,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 1]</t>
+          <t>[0, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['Normal', 'SoftwareFault']</t>
+          <t>['SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -1207,12 +1207,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 1]</t>
+          <t>[0, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['Normal', 'SoftwareFault']</t>
+          <t>['SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -1396,12 +1396,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 0, 0]</t>
+          <t>[1, 1, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['Normal', 'HardwareFault']</t>
+          <t>['Normal', 'SurroundingEnvironment', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -1450,12 +1450,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 1]</t>
+          <t>[0, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['Normal', 'SoftwareFault']</t>
+          <t>['SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -1855,12 +1855,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>['Normal', 'HardwareFault']</t>
+          <t>['Normal']</t>
         </is>
       </c>
     </row>
@@ -1882,12 +1882,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 1]</t>
+          <t>[0, 0, 0, 0, 0, 1, 0]</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>['SoftwareFault']</t>
+          <t>['CommunicationIssue']</t>
         </is>
       </c>
     </row>
@@ -1936,12 +1936,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>['Normal', 'HardwareFault']</t>
+          <t>['Normal']</t>
         </is>
       </c>
     </row>
@@ -1990,12 +1990,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>[0, 1, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>['SurroundingEnvironment']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2071,12 +2071,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 1]</t>
+          <t>[0, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>['Normal', 'SoftwareFault']</t>
+          <t>['SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -2287,12 +2287,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 0, 0, 0, 0]</t>
+          <t>[1, 1, 0, 0, 0, 1, 0]</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>['Normal', 'SurroundingEnvironment']</t>
+          <t>['Normal', 'SurroundingEnvironment', 'CommunicationIssue']</t>
         </is>
       </c>
     </row>
@@ -2449,12 +2449,12 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 1]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>['Normal', 'SoftwareFault']</t>
+          <t>['Normal']</t>
         </is>
       </c>
     </row>
@@ -2584,12 +2584,12 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -3313,12 +3313,12 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -3367,12 +3367,12 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 1]</t>
+          <t>[1, 1, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>['Normal', 'SoftwareFault']</t>
+          <t>['Normal', 'SurroundingEnvironment', 'SoftwareFault']</t>
         </is>
       </c>
     </row>

--- a/classification/droptc/message/bert-base-uncased/unfreeze/87212562/prediction.xlsx
+++ b/classification/droptc/message/bert-base-uncased/unfreeze/87212562/prediction.xlsx
@@ -1099,12 +1099,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -1450,12 +1450,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 1]</t>
+          <t>[0, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['SoftwareFault']</t>
+          <t>['HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -1477,12 +1477,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 0, 1]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['Normal', 'HardwareFault', 'SoftwareFault']</t>
+          <t>['Normal', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -1936,12 +1936,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -1990,12 +1990,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['ParamViolation']</t>
         </is>
       </c>
     </row>
@@ -2287,12 +2287,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 0, 0, 1, 0]</t>
+          <t>[1, 1, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>['Normal', 'SurroundingEnvironment', 'CommunicationIssue']</t>
+          <t>['Normal', 'SurroundingEnvironment']</t>
         </is>
       </c>
     </row>
@@ -2422,12 +2422,12 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 1]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>['Normal', 'SoftwareFault']</t>
+          <t>['Normal']</t>
         </is>
       </c>
     </row>
@@ -2692,12 +2692,12 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 1, 0, 0, 0]</t>
+          <t>[1, 1, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>['Normal', 'ParamViolation']</t>
+          <t>['Normal', 'SurroundingEnvironment']</t>
         </is>
       </c>
     </row>
@@ -2881,12 +2881,12 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -3313,12 +3313,12 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 1]</t>
+          <t>[1, 0, 0, 0, 0, 1, 0]</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>['Normal', 'SoftwareFault']</t>
+          <t>['Normal', 'CommunicationIssue']</t>
         </is>
       </c>
     </row>
@@ -3475,12 +3475,12 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>['Normal', 'HardwareFault']</t>
+          <t>['Normal', 'HardwareFault', 'SoftwareFault']</t>
         </is>
       </c>
     </row>
